--- a/data/trans_orig/P34D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34D_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D80BC56-5366-48AD-9BA4-140BAF5E5794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6E8946D-69CD-4F83-807F-A015A9A1BF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{957DAF28-E8C4-4C00-98B9-1E868094EE0C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B992F5C-E2B7-45E1-B83E-9B08705DA752}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>5,59%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>94,41%</t>
   </si>
   <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>96,74%</t>
   </si>
   <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>20,49%</t>
   </si>
   <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
   </si>
   <si>
     <t>6,38%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
   </si>
   <si>
     <t>79,51%</t>
   </si>
   <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
   </si>
   <si>
     <t>93,62%</t>
   </si>
   <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>25,36%</t>
   </si>
   <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
   </si>
   <si>
     <t>19,01%</t>
   </si>
   <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
   </si>
   <si>
     <t>74,64%</t>
   </si>
   <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
   </si>
   <si>
     <t>86,97%</t>
   </si>
   <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>80,99%</t>
   </si>
   <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
   </si>
   <si>
     <t>19,07%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
   </si>
   <si>
     <t>80,93%</t>
   </si>
   <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
   </si>
   <si>
     <t>93,39%</t>
   </si>
   <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
   <si>
     <t>87,52%</t>
   </si>
   <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB32086-E343-41D8-8B34-FAFF7C4F0E34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F55830-D1F4-4D1B-8C2E-331708F4567C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1053,7 +1053,7 @@
         <v>2767</v>
       </c>
       <c r="I8" s="7">
-        <v>2106074</v>
+        <v>2106075</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1104,7 +1104,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1348,7 +1348,7 @@
         <v>2854</v>
       </c>
       <c r="D14" s="7">
-        <v>2732734</v>
+        <v>2732733</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1399,7 +1399,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P34D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34D_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6E8946D-69CD-4F83-807F-A015A9A1BF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60E50EDD-529E-4F56-B035-285F17C35241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B992F5C-E2B7-45E1-B83E-9B08705DA752}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C5D72C54-92E0-40D4-BC2A-EC05C5702EA6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F55830-D1F4-4D1B-8C2E-331708F4567C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E03EFF-10E7-484E-A8CB-5B7DE8F46A22}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P34D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34D_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60E50EDD-529E-4F56-B035-285F17C35241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04566A2B-8E02-47F3-BC27-3A9BC48BD167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C5D72C54-92E0-40D4-BC2A-EC05C5702EA6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4D334019-36A0-48D2-BF74-F63D77F93B57}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>5,59%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>94,41%</t>
   </si>
   <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>96,74%</t>
   </si>
   <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>20,49%</t>
   </si>
   <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
   </si>
   <si>
     <t>6,38%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
   </si>
   <si>
     <t>79,51%</t>
   </si>
   <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
   </si>
   <si>
     <t>93,62%</t>
   </si>
   <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>25,36%</t>
   </si>
   <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
   </si>
   <si>
     <t>19,01%</t>
   </si>
   <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
   </si>
   <si>
     <t>74,64%</t>
   </si>
   <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
   </si>
   <si>
     <t>86,97%</t>
   </si>
   <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
   </si>
   <si>
     <t>80,99%</t>
   </si>
   <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
   </si>
   <si>
     <t>19,07%</t>
   </si>
   <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
   </si>
   <si>
     <t>80,93%</t>
   </si>
   <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
   </si>
   <si>
     <t>93,39%</t>
   </si>
   <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
   </si>
   <si>
     <t>87,52%</t>
   </si>
   <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E03EFF-10E7-484E-A8CB-5B7DE8F46A22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCA2425-482D-42E5-81E6-8771D031DF13}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1053,7 +1053,7 @@
         <v>2767</v>
       </c>
       <c r="I8" s="7">
-        <v>2106075</v>
+        <v>2106074</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1104,7 +1104,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1348,7 +1348,7 @@
         <v>2854</v>
       </c>
       <c r="D14" s="7">
-        <v>2732733</v>
+        <v>2732734</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1399,7 +1399,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P34D_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34D_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04566A2B-8E02-47F3-BC27-3A9BC48BD167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71F17F7C-0FCF-4B30-A82E-D53BFA61410E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4D334019-36A0-48D2-BF74-F63D77F93B57}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B2FFA5B4-CDB5-499D-ACC6-2EC9521F96F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,169 +134,169 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCA2425-482D-42E5-81E6-8771D031DF13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8081E81-2E39-448B-89E6-DB5EBBEE419F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -832,7 +832,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="7">
-        <v>30273</v>
+        <v>29054</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -847,7 +847,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>14551</v>
+        <v>12084</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -862,7 +862,7 @@
         <v>48</v>
       </c>
       <c r="N4" s="7">
-        <v>44824</v>
+        <v>41138</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -883,7 +883,7 @@
         <v>655</v>
       </c>
       <c r="D5" s="7">
-        <v>511361</v>
+        <v>485884</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -898,7 +898,7 @@
         <v>1414</v>
       </c>
       <c r="I5" s="7">
-        <v>818640</v>
+        <v>741084</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -913,7 +913,7 @@
         <v>2069</v>
       </c>
       <c r="N5" s="7">
-        <v>1330000</v>
+        <v>1226969</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -934,7 +934,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -949,7 +949,7 @@
         <v>1426</v>
       </c>
       <c r="I6" s="7">
-        <v>833191</v>
+        <v>753168</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -964,7 +964,7 @@
         <v>2117</v>
       </c>
       <c r="N6" s="7">
-        <v>1374824</v>
+        <v>1268107</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -987,7 +987,7 @@
         <v>328</v>
       </c>
       <c r="D7" s="7">
-        <v>443006</v>
+        <v>440706</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1002,7 +1002,7 @@
         <v>154</v>
       </c>
       <c r="I7" s="7">
-        <v>143446</v>
+        <v>130248</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1017,7 +1017,7 @@
         <v>482</v>
       </c>
       <c r="N7" s="7">
-        <v>586451</v>
+        <v>570953</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1038,7 +1038,7 @@
         <v>1664</v>
       </c>
       <c r="D8" s="7">
-        <v>1719016</v>
+        <v>1849621</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1053,7 +1053,7 @@
         <v>2767</v>
       </c>
       <c r="I8" s="7">
-        <v>2106074</v>
+        <v>2107575</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1068,7 +1068,7 @@
         <v>4431</v>
       </c>
       <c r="N8" s="7">
-        <v>3825092</v>
+        <v>3957197</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1089,7 +1089,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1104,7 +1104,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1119,7 +1119,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1142,7 +1142,7 @@
         <v>146</v>
       </c>
       <c r="D10" s="7">
-        <v>170682</v>
+        <v>164365</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1157,7 +1157,7 @@
         <v>107</v>
       </c>
       <c r="I10" s="7">
-        <v>93004</v>
+        <v>86342</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1172,7 +1172,7 @@
         <v>253</v>
       </c>
       <c r="N10" s="7">
-        <v>263687</v>
+        <v>250707</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1193,7 +1193,7 @@
         <v>535</v>
       </c>
       <c r="D11" s="7">
-        <v>502357</v>
+        <v>482258</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1208,7 +1208,7 @@
         <v>897</v>
       </c>
       <c r="I11" s="7">
-        <v>620882</v>
+        <v>574121</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1223,7 +1223,7 @@
         <v>1432</v>
       </c>
       <c r="N11" s="7">
-        <v>1123239</v>
+        <v>1056379</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1244,7 +1244,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1259,7 +1259,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1274,7 +1274,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1297,7 +1297,7 @@
         <v>510</v>
       </c>
       <c r="D13" s="7">
-        <v>643961</v>
+        <v>634125</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1312,7 +1312,7 @@
         <v>273</v>
       </c>
       <c r="I13" s="7">
-        <v>251001</v>
+        <v>228673</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1327,7 +1327,7 @@
         <v>783</v>
       </c>
       <c r="N13" s="7">
-        <v>894962</v>
+        <v>862798</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1348,7 +1348,7 @@
         <v>2854</v>
       </c>
       <c r="D14" s="7">
-        <v>2732734</v>
+        <v>2817764</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1363,7 +1363,7 @@
         <v>5078</v>
       </c>
       <c r="I14" s="7">
-        <v>3545597</v>
+        <v>3422782</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1378,7 +1378,7 @@
         <v>7932</v>
       </c>
       <c r="N14" s="7">
-        <v>6278331</v>
+        <v>6240546</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1399,7 +1399,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1414,7 @@
         <v>5351</v>
       </c>
       <c r="I15" s="7">
-        <v>3796598</v>
+        <v>3651455</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1429,7 @@
         <v>8715</v>
       </c>
       <c r="N15" s="7">
-        <v>7173293</v>
+        <v>7103344</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
